--- a/fastqFiles/fastq_11.05.20.xlsx
+++ b/fastqFiles/fastq_11.05.20.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="114">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t xml:space="preserve">Brent_Small_1i_1_GTAC_1_SIC_Index2_08_TGAGGTTATC_AAGCACGT_S26_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">na</t>
   </si>
   <si>
     <t xml:space="preserve">Brent_Large_1i_2_GTAC_2_SIC_Index2_08_GCTTAGAATC_AAGCACGT_S27_R1_001.fastq.gz</t>
@@ -464,13 +461,15 @@
   </sheetPr>
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S12" activeCellId="0" sqref="S12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1450,7 +1449,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>68</v>
       </c>
@@ -1472,9 +1471,6 @@
       <c r="H29" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="J29" s="0" t="n">
         <v>0.308600297270801</v>
       </c>
@@ -1482,7 +1478,7 @@
         <v>13146794</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1508,7 +1504,7 @@
         <v>18</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>0.620280320366133</v>
@@ -1517,7 +1513,7 @@
         <v>6691582</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1543,7 +1539,7 @@
         <v>18</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>0.639759391595096</v>
@@ -1552,7 +1548,7 @@
         <v>7567980</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1578,7 +1574,7 @@
         <v>18</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>0.545824477010851</v>
@@ -1587,7 +1583,7 @@
         <v>8162853</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1613,7 +1609,7 @@
         <v>18</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>0.608939157566303</v>
@@ -1622,7 +1618,7 @@
         <v>9543028</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1648,7 +1644,7 @@
         <v>18</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>0.510101934134867</v>
@@ -1657,7 +1653,7 @@
         <v>6745545</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1683,7 +1679,7 @@
         <v>18</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>1.30788846428503</v>
@@ -1692,7 +1688,7 @@
         <v>7522928</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1718,7 +1714,7 @@
         <v>18</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>5</v>
@@ -1727,10 +1723,10 @@
         <v>1609589</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>68</v>
       </c>
@@ -1752,9 +1748,6 @@
       <c r="H37" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="I37" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="J37" s="0" t="n">
         <v>2.34573317307692</v>
       </c>
@@ -1762,7 +1755,7 @@
         <v>5788309</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1788,7 +1781,7 @@
         <v>18</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>0.643132538061029</v>
@@ -1797,7 +1790,7 @@
         <v>6186375</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1823,7 +1816,7 @@
         <v>18</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>2.28523273508513</v>
@@ -1832,7 +1825,7 @@
         <v>8740872</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1858,7 +1851,7 @@
         <v>18</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>1.66763906092349</v>
@@ -1867,7 +1860,7 @@
         <v>7311322</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1893,7 +1886,7 @@
         <v>18</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>0.47787708129285</v>
@@ -1902,7 +1895,7 @@
         <v>6971811</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1928,7 +1921,7 @@
         <v>18</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>2.99407674004391</v>
@@ -1937,7 +1930,7 @@
         <v>6632822</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1963,7 +1956,7 @@
         <v>18</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>5</v>
@@ -1972,7 +1965,7 @@
         <v>394461</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1998,7 +1991,7 @@
         <v>18</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>1.34582239599072</v>
@@ -2007,7 +2000,7 @@
         <v>6368682</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2033,7 +2026,7 @@
         <v>18</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>3.05468140313906</v>
@@ -2042,7 +2035,7 @@
         <v>7136949</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2068,7 +2061,7 @@
         <v>18</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>2.70602475791155</v>
@@ -2077,10 +2070,10 @@
         <v>7084784</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>68</v>
       </c>
@@ -2102,9 +2095,6 @@
       <c r="H47" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="I47" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="J47" s="0" t="n">
         <v>5.49915469146238</v>
       </c>
@@ -2112,7 +2102,7 @@
         <v>5345807</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2138,7 +2128,7 @@
         <v>18</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2164,7 +2154,7 @@
         <v>18</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2190,7 +2180,7 @@
         <v>18</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2216,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2242,7 +2232,7 @@
         <v>18</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J52" s="0" t="n">
         <v>0.540144470275656</v>
@@ -2251,7 +2241,7 @@
         <v>7088583</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2277,7 +2267,7 @@
         <v>18</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J53" s="0" t="n">
         <v>1.48911075599353</v>
@@ -2286,7 +2276,7 @@
         <v>6704142</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
